--- a/biology/Histoire de la zoologie et de la botanique/John_Desmond_Clark/John_Desmond_Clark.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Desmond_Clark/John_Desmond_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Desmond Clark ou, plus communément, J. Desmond Clark est un archéologue britannique né le 10 avril 1916 et mort le 14 février 2002. Il a en particulier étudié la Préhistoire de l'Afrique.
 </t>
@@ -511,14 +523,16 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">J. Desmond Clark a étudié à la Monkton Combe School près de Bath et a obtenu son diplôme de premier cycle (B.A.) au Christ's College à l'Université de Cambridge. En 1937, il devient conservateur du Livingstone Memorial Museum en Rhodésie du Nord.
 Un an plus tard, il épouse Betty Behaume, qui l'accompagnera lors de nombreuses expéditions tout au long de sa vie. Durant la Seconde Guerre mondiale, Clark est militaire dans la Corne de l'Afrique, où il entreprend des recherches archéologiques ; il fouille notamment en 1942 les grottes de Mumbwa en Zambie. En 1947, il retourne à Cambridge où il achève son Ph.D..
 Il rentre ensuite en Rhodésie en tant que directeur du Musée. En 1953, il entreprend la fouille d'un site préhistorique proche des chutes de Kalambo (Kalambo Falls) à l'extrémité sud-est du Lac Tanganyika, sur la frontière actuelle entre la Zambie et la Tanzanie. Le site livre l'une des plus importantes séquences paléolithiques d'Afrique, avec des occupations acheuléennes, sangoennes, lupembiennes, magosiennes, Wilton et bantoues. 
 Il participe également à d'importants travaux de terrain en Éthiopie, en Somalie, au Malawi, en Angola et au Niger. Il collabore notamment avec Louis et Mary Leakey.
 En 1961, Clark devient professeur d'anthropologie à Berkeley, où il enseigne jusqu'à sa retraite en 1986.
-À partir de 1979, il appartient au comité de patronage de Nouvelle École[1].
+À partir de 1979, il appartient au comité de patronage de Nouvelle École.
 Il poursuit ses recherches jusqu'à sa mort, notamment en dirigeant en 1991 l'une des premières fouilles conduites en Chine par des archéologues étrangers.
 Il meurt d'une pneumonie à Oakland en 2002, laissant plus de vingt ouvrages et plus de 300 articles scientifiques concernant la paléoanthropologie et la Préhistoire africaine. Son épouse ne lui survit que de deux mois. Ils ont eu deux enfants, Elizabeth et John.
 </t>
